--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.1037179234101</v>
+        <v>165.6051789098725</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.645402516788</v>
+        <v>226.5883117692481</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.7866132240147</v>
+        <v>204.9630413127492</v>
       </c>
       <c r="AD2" t="n">
-        <v>129103.7179234101</v>
+        <v>165605.1789098725</v>
       </c>
       <c r="AE2" t="n">
-        <v>176645.402516788</v>
+        <v>226588.3117692481</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.272106013666579e-06</v>
+        <v>6.054252809851718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.644097222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>159786.6132240147</v>
+        <v>204963.0413127492</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.88336005742157</v>
+        <v>117.2745612847776</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.0871109551545</v>
+        <v>160.4602285382596</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.9580954535086</v>
+        <v>145.1461295339575</v>
       </c>
       <c r="AD3" t="n">
-        <v>92883.36005742157</v>
+        <v>117274.5612847776</v>
       </c>
       <c r="AE3" t="n">
-        <v>127087.1109551545</v>
+        <v>160460.2285382596</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.030681695186226e-06</v>
+        <v>7.457816426722196e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.77025462962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>114958.0954535086</v>
+        <v>145146.1295339575</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.1056156930659</v>
+        <v>128.5477886124795</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.8101403236979</v>
+        <v>175.8847555077028</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.0851023700427</v>
+        <v>159.0985612979015</v>
       </c>
       <c r="AD2" t="n">
-        <v>105105.6156930659</v>
+        <v>128547.7886124794</v>
       </c>
       <c r="AE2" t="n">
-        <v>143810.1403236979</v>
+        <v>175884.7555077028</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.918518340508086e-06</v>
+        <v>7.469300711342963e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>130085.1023700427</v>
+        <v>159098.5612979015</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.89814292576254</v>
+        <v>112.4255671911967</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.6343610602499</v>
+        <v>153.825620896904</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.0257483555894</v>
+        <v>139.1447195341605</v>
       </c>
       <c r="AD3" t="n">
-        <v>88898.14292576254</v>
+        <v>112425.5671911967</v>
       </c>
       <c r="AE3" t="n">
-        <v>121634.3610602499</v>
+        <v>153825.620896904</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.106987527658484e-06</v>
+        <v>7.828552068953344e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>110025.7483555894</v>
+        <v>139144.7195341605</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.44362277190251</v>
+        <v>114.2852564082634</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.8536871181535</v>
+        <v>156.3701297273914</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.6515106634076</v>
+        <v>141.4463840131075</v>
       </c>
       <c r="AD2" t="n">
-        <v>93443.6227719025</v>
+        <v>114285.2564082634</v>
       </c>
       <c r="AE2" t="n">
-        <v>127853.6871181535</v>
+        <v>156370.1297273914</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.958374065837936e-06</v>
+        <v>8.430300842126839e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.432870370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>115651.5106634076</v>
+        <v>141446.3840131075</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.01677401900199</v>
+        <v>116.8751147653818</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.0061420569687</v>
+        <v>159.9136881880859</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.5985383238525</v>
+        <v>144.65175022773</v>
       </c>
       <c r="AD2" t="n">
-        <v>95016.77401900198</v>
+        <v>116875.1147653818</v>
       </c>
       <c r="AE2" t="n">
-        <v>130006.1420569687</v>
+        <v>159913.6881880859</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.099048277686952e-06</v>
+        <v>8.322485174479218e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.094328703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>117598.5383238525</v>
+        <v>144651.75022773</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.6181550275455</v>
+        <v>124.6722790639539</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.4607339670295</v>
+        <v>170.5821123679984</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.1051832165318</v>
+        <v>154.3019949771424</v>
       </c>
       <c r="AD2" t="n">
-        <v>94618.15502754549</v>
+        <v>124672.2790639539</v>
       </c>
       <c r="AE2" t="n">
-        <v>129460.7339670295</v>
+        <v>170582.1123679984</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.693974820815588e-06</v>
+        <v>8.225760403866584e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.930555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>117105.1832165318</v>
+        <v>154301.9949771424</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.4140546228173</v>
+        <v>134.0832639319801</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.0733806591774</v>
+        <v>183.4586370477756</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.6551492419281</v>
+        <v>165.9496022138017</v>
       </c>
       <c r="AD2" t="n">
-        <v>110414.0546228173</v>
+        <v>134083.2639319801</v>
       </c>
       <c r="AE2" t="n">
-        <v>151073.3806591774</v>
+        <v>183458.6370477756</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.750760785302598e-06</v>
+        <v>7.091802222545381e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.152199074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>136655.1492419281</v>
+        <v>165949.6022138017</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.74786714653817</v>
+        <v>113.5023278017215</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.7969912263015</v>
+        <v>155.298892267549</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.0774187303551</v>
+        <v>140.4773839529409</v>
       </c>
       <c r="AD3" t="n">
-        <v>89747.86714653816</v>
+        <v>113502.3278017215</v>
       </c>
       <c r="AE3" t="n">
-        <v>122796.9912263015</v>
+        <v>155298.8922675489</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.094054223240806e-06</v>
+        <v>7.74088898267557e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.804976851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>111077.4187303551</v>
+        <v>140477.3839529409</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.4505514379176</v>
+        <v>135.6787261917213</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.6503407441805</v>
+        <v>185.6416188983796</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.7496766451325</v>
+        <v>167.924243340419</v>
       </c>
       <c r="AD2" t="n">
-        <v>106450.5514379176</v>
+        <v>135678.7261917213</v>
       </c>
       <c r="AE2" t="n">
-        <v>145650.3407441805</v>
+        <v>185641.6188983796</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.472153239735616e-06</v>
+        <v>7.960143062018353e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.37037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>131749.6766451325</v>
+        <v>167924.243340419</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.8440896590745</v>
+        <v>108.6346709923882</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.4556706454484</v>
+        <v>148.6387494751599</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.2458662891464</v>
+        <v>134.4528758410862</v>
       </c>
       <c r="AD2" t="n">
-        <v>85844.0896590745</v>
+        <v>108634.6709923882</v>
       </c>
       <c r="AE2" t="n">
-        <v>117455.6706454484</v>
+        <v>148638.7494751599</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.136925882982169e-06</v>
+        <v>8.108317558601637e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.914930555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>106245.8662891464</v>
+        <v>134452.8758410862</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.0903569786164</v>
+        <v>108.8809383119301</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.7926244565929</v>
+        <v>148.9757032863043</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.550661701473</v>
+        <v>134.7576712534128</v>
       </c>
       <c r="AD3" t="n">
-        <v>86090.3569786164</v>
+        <v>108880.9383119301</v>
       </c>
       <c r="AE3" t="n">
-        <v>117792.6244565929</v>
+        <v>148975.7032863043</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.137541621899872e-06</v>
+        <v>8.109524398370864e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.914930555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>106550.661701473</v>
+        <v>134757.6712534128</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.68375268106843</v>
+        <v>112.9755072130773</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.7092669861152</v>
+        <v>154.5780730964821</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.9980667685304</v>
+        <v>139.8253587518844</v>
       </c>
       <c r="AD2" t="n">
-        <v>89683.75268106842</v>
+        <v>112975.5072130772</v>
       </c>
       <c r="AE2" t="n">
-        <v>122709.2669861152</v>
+        <v>154578.0730964821</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.029944102567209e-06</v>
+        <v>7.748385943222291e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.938078703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>110998.0667685304</v>
+        <v>139825.3587518844</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.82440616019484</v>
+        <v>111.1161606922037</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.165227047678</v>
+        <v>152.034033158045</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.6968264312344</v>
+        <v>137.5241184145884</v>
       </c>
       <c r="AD3" t="n">
-        <v>87824.40616019483</v>
+        <v>111116.1606922037</v>
       </c>
       <c r="AE3" t="n">
-        <v>120165.227047678</v>
+        <v>152034.033158045</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.122523454824121e-06</v>
+        <v>7.926388549065662e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.84837962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>108696.8264312344</v>
+        <v>137524.1184145884</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.373753703061</v>
+        <v>146.4742132357792</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.4371685654441</v>
+        <v>200.4124805353276</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.4572001971465</v>
+        <v>181.2853946737759</v>
       </c>
       <c r="AD2" t="n">
-        <v>122373.753703061</v>
+        <v>146474.2132357792</v>
       </c>
       <c r="AE2" t="n">
-        <v>167437.1685654441</v>
+        <v>200412.4805353276</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.428703139877812e-06</v>
+        <v>6.387413894719438e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.467592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>151457.2001971465</v>
+        <v>181285.3946737759</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.25807550925914</v>
+        <v>116.4437863879979</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.2315690507517</v>
+        <v>159.3235256732845</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.1842052677012</v>
+        <v>144.1179119950428</v>
       </c>
       <c r="AD3" t="n">
-        <v>92258.07550925914</v>
+        <v>116443.7863879979</v>
       </c>
       <c r="AE3" t="n">
-        <v>126231.5690507517</v>
+        <v>159323.5256732845</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.03442234267058e-06</v>
+        <v>7.51582282788674e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.796296296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>114184.2052677012</v>
+        <v>144117.9119950428</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.77176134407581</v>
+        <v>117.927476976273</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.0391490228242</v>
+        <v>161.3535765919706</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.5329565547215</v>
+        <v>145.9542177032445</v>
       </c>
       <c r="AD2" t="n">
-        <v>95771.76134407581</v>
+        <v>117927.476976273</v>
       </c>
       <c r="AE2" t="n">
-        <v>131039.1490228242</v>
+        <v>161353.5765919706</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.118419533751829e-06</v>
+        <v>8.255361062039092e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.02488425925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>118532.9565547215</v>
+        <v>145954.2177032445</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.82431520261034</v>
+        <v>115.0295618703336</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.3745672968124</v>
+        <v>157.3885212970347</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.1226787688754</v>
+        <v>142.367581720666</v>
       </c>
       <c r="AD2" t="n">
-        <v>93824.31520261033</v>
+        <v>115029.5618703336</v>
       </c>
       <c r="AE2" t="n">
-        <v>128374.5672968124</v>
+        <v>157388.5212970347</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.023001137992752e-06</v>
+        <v>8.41636997079184e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.291087962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>116122.6787688754</v>
+        <v>142367.581720666</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.61314616635062</v>
+        <v>124.3239609204606</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.0856365052816</v>
+        <v>170.1055281173591</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.8613231265713</v>
+        <v>153.8708952584938</v>
       </c>
       <c r="AD2" t="n">
-        <v>93613.14616635062</v>
+        <v>124323.9609204606</v>
       </c>
       <c r="AE2" t="n">
-        <v>128085.6365052816</v>
+        <v>170105.5281173591</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.852859812630954e-06</v>
+        <v>8.375561534137281e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>115861.3231265713</v>
+        <v>153870.8952584938</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.6394590051359</v>
+        <v>149.0913396822367</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.064230048062</v>
+        <v>203.993348398839</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.3107316014225</v>
+        <v>184.5245095341745</v>
       </c>
       <c r="AD2" t="n">
-        <v>120639.4590051359</v>
+        <v>149091.3396822367</v>
       </c>
       <c r="AE2" t="n">
-        <v>165064.230048062</v>
+        <v>203993.348398839</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.106901840275944e-06</v>
+        <v>7.389849800115768e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.168981481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>149310.7316014225</v>
+        <v>184524.5095341745</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.39914870852161</v>
+        <v>110.4456613108285</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.5833710412644</v>
+        <v>151.1166263241028</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.1705019454326</v>
+        <v>136.6942676012888</v>
       </c>
       <c r="AD2" t="n">
-        <v>87399.14870852161</v>
+        <v>110445.6613108285</v>
       </c>
       <c r="AE2" t="n">
-        <v>119583.3710412644</v>
+        <v>151116.6263241028</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.103465792469932e-06</v>
+        <v>7.96309624074782e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.90625</v>
       </c>
       <c r="AH2" t="n">
-        <v>108170.5019454326</v>
+        <v>136694.2676012888</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.89849859765079</v>
+        <v>109.9450111999576</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.8983594724472</v>
+        <v>150.4316147552856</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.5508669193234</v>
+        <v>136.0746325751795</v>
       </c>
       <c r="AD3" t="n">
-        <v>86898.49859765079</v>
+        <v>109945.0111999576</v>
       </c>
       <c r="AE3" t="n">
-        <v>118898.3594724471</v>
+        <v>150431.6147552856</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.134652110335461e-06</v>
+        <v>8.023615729179642e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.877314814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>107550.8669193234</v>
+        <v>136074.6325751795</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.6946496838773</v>
+        <v>140.5830597461054</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.6667679020141</v>
+        <v>192.3519444314107</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.428395667206</v>
+        <v>173.9941448225809</v>
       </c>
       <c r="AD2" t="n">
-        <v>116694.6496838773</v>
+        <v>140583.0597461054</v>
       </c>
       <c r="AE2" t="n">
-        <v>159666.7679020141</v>
+        <v>192351.9444314108</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.5732140679941e-06</v>
+        <v>6.704751110610499e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>144428.395667206</v>
+        <v>173994.1448225809</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.74102110406811</v>
+        <v>114.7146825123167</v>
       </c>
       <c r="AB3" t="n">
-        <v>124.1558682858536</v>
+        <v>156.9576894678995</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.3066064705399</v>
+        <v>141.977867876627</v>
       </c>
       <c r="AD3" t="n">
-        <v>90741.02110406812</v>
+        <v>114714.6825123167</v>
       </c>
       <c r="AE3" t="n">
-        <v>124155.8682858536</v>
+        <v>156957.6894678995</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.074598865661727e-06</v>
+        <v>7.645545648815255e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.79050925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>112306.6064705399</v>
+        <v>141977.867876627</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.2118212564769</v>
+        <v>186.8421043635</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.2122436689008</v>
+        <v>255.645610081914</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.7723383082826</v>
+        <v>231.2471518566379</v>
       </c>
       <c r="AD2" t="n">
-        <v>141211.8212564769</v>
+        <v>186842.1043635</v>
       </c>
       <c r="AE2" t="n">
-        <v>193212.2436689007</v>
+        <v>255645.6100819141</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.502993574440374e-06</v>
+        <v>6.259796978665249e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.92824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>174772.3383082826</v>
+        <v>231247.1518566379</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.22014261627241</v>
+        <v>115.7627852189374</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.9161558268576</v>
+        <v>158.3917498301251</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.6125788497375</v>
+        <v>143.2750635305987</v>
       </c>
       <c r="AD2" t="n">
-        <v>94220.14261627241</v>
+        <v>115762.7852189374</v>
       </c>
       <c r="AE2" t="n">
-        <v>128916.1558268576</v>
+        <v>158391.7498301252</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.07423718142879e-06</v>
+        <v>8.390009232170364e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.175347222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>116612.5788497375</v>
+        <v>143275.0635305987</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.20477475564965</v>
+        <v>118.8180150328266</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.5809317900001</v>
+        <v>162.5720500487129</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.4546112823581</v>
+        <v>147.0564017634139</v>
       </c>
       <c r="AD2" t="n">
-        <v>85204.77475564965</v>
+        <v>118818.0150328266</v>
       </c>
       <c r="AE2" t="n">
-        <v>116580.9317900001</v>
+        <v>162572.0500487129</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.131811287381563e-06</v>
+        <v>8.185878875445301e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.96412037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>105454.6112823581</v>
+        <v>147056.4017634139</v>
       </c>
     </row>
   </sheetData>
